--- a/nsf_solicitations.xlsx
+++ b/nsf_solicitations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
   <si>
     <t>limit_per_org_text</t>
   </si>
@@ -47,13 +47,788 @@
     <t>pims_id</t>
   </si>
   <si>
+    <t xml:space="preserve">One (1), either as the lead organization or as a sub-awardee but not both. Sub-awards solely for the provision of a widely recognized commercial service, for example, architectural design, construction, or telecommunications services, are not subject to this restriction. Collaborative proposals are welcome. Collaborative proposals may only be submitted as a single proposal in which a single award is being requested. The involvement of partner organizations should be supported through sub-awards administered by the submitting organization. Partners in collaborative proposals should not submit separate proposals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no restrictions or limits. </t>
+  </si>
+  <si>
     <t xml:space="preserve">There are no restrictions or limits._x000D_ </t>
   </si>
   <si>
+    <t xml:space="preserve">1_x000D_ One proposal per eligible organization for Institutional_x000D_ Transformation and Institutional Transformation Catalyst Awards._x000D_ No limit for PLAN IHE and PLAN D proposals._x000D_ See additional eligibility information._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* AGEP-Transformation - An institution or organization may serve as_x000D_ the lead on one AGEP-Transformation collaborative proposal. An_x000D_ institution or organization may be a partner in multiple_x000D_ AGEP-Transformation projects; however the projects must be distinct_x000D_ and not overlap or have similar activities or education research_x000D_ components. Each AGEP-Transformation alliance partner must_x000D_ simultaneously submit proposals as part of one collaborative_x000D_ proposal. (See Chapter II, Section D.4.b for guidance in the_x000D_ preparation of collaborative proposals submitted as separate_x000D_ submissions from multiple organizations.) Institutions and_x000D_ organizations involved in AGEP-Transformation projects may also_x000D_ participate in AGEP-KAT and AGEP-BPR projects._x000D_ * AGEP-KAT and AGEP-BPR - There are no limits on the number of_x000D_ proposals that can be submitted; however the projects must be_x000D_ distinct and not overlap or have similar activities or education_x000D_ research components with proposals in other AGEP tracks._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_x000D_ Only one Thematic Collections Networks (TCN) proposal may be_x000D_ submitted by any one organization as the lead organization._x000D_ Organizations may be involved in more than one collaborative effort_x000D_ as a non-lead proposal._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None Specified_x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None Specified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_x000D_ Each organization may submit no more than one proposal._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one preliminary CREST Center proposal may be submitted per_x000D_ eligible institution. Full CREST Center proposals are to be_x000D_ submitted only when invited by NSF. An institution may have only one_x000D_ active CREST Center award, irrespective of focus area. Centers that_x000D_ have completed two prior, consecutive 5-year CREST Center awards may_x000D_ recompete in disciplinary areas that are significantly different_x000D_ from those of the previous award(s)._x000D_ Only two (2) individuals per active CREST Center may submit a_x000D_ CREST-PRF application per competition. Only one individual can be_x000D_ awarded a CREST-PRF at an active CREST Center per year._x000D_ Only one HBCU-RISE proposal may be submitted per eligible_x000D_ institution. An institution may have only one active HBCU-RISE_x000D_ award._x000D_ For each active SBIR/STTR Phase II grant, only one SBIR/STTR_x000D_ collaboration with a CREST Center may be submitted. For each CREST_x000D_ center, only one SBIR/STTR collaboration can be active at any given_x000D_ time._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_x000D_ An organization may only submit one proposal. This limit holds_x000D_ across all regions defined in the Program Description._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_x000D_ One proposal per Organization is allowed._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_x000D_ An organization may submit only one Consortium proposal._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_x000D_ In a single round of the CSBR competition, only one proposal may be_x000D_ submitted from any individual collection within an organization. One_x000D_ organization may not submit more than three proposals to any one_x000D_ CSBR competition._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_x000D_ Academic institutions are limited to participation on two (2)_x000D_ proposals as a lead institution, preferably involving distinct_x000D_ application areas._x000D_ A lead academic institution that has submitted a proposal has the_x000D_ option to participate as a subawardee on additional proposals_x000D_ submitted under this solicitation. Lead academic institutions that_x000D_ have submitted a proposal may also provide consultants to other_x000D_ proposals submitted under this solicitation._x000D_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple programs or individuals from the same institution may be_x000D_ nominated. However each program or individual may be nominated only_x000D_ once in a competition._x000D_ </t>
+  </si>
+  <si>
+    <t>Academic Research Infrastructure Program: Recovery and Reinvestment (ARI-R^2) (nsf09562</t>
+  </si>
+  <si>
+    <t>Division of Physics: Investigator-Initiated Research Projects (PHY)</t>
+  </si>
+  <si>
+    <t>Antarctic Research</t>
+  </si>
+  <si>
+    <t>Antarctic Artists and Writers Program</t>
+  </si>
+  <si>
+    <t>ADVANCE: Increasing the Participation and _x000D_ Advancement of Women in Academic Science and</t>
+  </si>
+  <si>
+    <t>Alliances for Graduate Education and the Professoriate (AGEP)</t>
+  </si>
+  <si>
+    <t>Advancing Informal STEM Learning (AISL)</t>
+  </si>
+  <si>
+    <t>Advancing Digitization of Biodiversity Collections_x000D_ (ADBC)</t>
+  </si>
+  <si>
+    <t>Advances in Biological Informatics (ABI)</t>
+  </si>
+  <si>
+    <t>Advanced Technological Education (ATE)</t>
+  </si>
+  <si>
+    <t>Advancing Health Services through System Modeling_x000D_ Research</t>
+  </si>
+  <si>
+    <t>Algorithms in the Field (AitF)</t>
+  </si>
+  <si>
+    <t>Advancing Theory in Biology (ATB)_x000D_ Date: 01/18/11</t>
+  </si>
+  <si>
+    <t>Algorithms for Threat Detection (ATD)</t>
+  </si>
+  <si>
+    <t>Atmospheric and Geospace Sciences Postdoctoral Research_x000D_ Fellowships (AGS-PRF)</t>
+  </si>
+  <si>
+    <t>Astronomy and Astrophysics Research  Grants (AAG)</t>
+  </si>
+  <si>
+    <t>Arctic Research Opportunities Arctic Natural Sciences; Arctic Social_x000D_ Sciences; Arctic System Science; Arctic Observing Network and Polar</t>
+  </si>
+  <si>
+    <t>Arctic SEES (ArcSEES) Science, Engineering, and Education for Sustainability</t>
+  </si>
+  <si>
+    <t>Archiving and Discovering of Data and Metadata Generated _x000D_ through Projects Funded by the NSF Arctic Sciences Section</t>
+  </si>
+  <si>
+    <t>Archaeology Program - Doctoral Dissertation Research _x000D_ Improvement Awards (Arch-DDRI)</t>
+  </si>
+  <si>
+    <t>Basic Research to Enable Agricultural Development (BREAD)</t>
+  </si>
+  <si>
+    <t>Centers of Research Excellence in Science and Technology (CREST)_x000D_ and HBCU Research Infrastructure for Science and Engineering (RISE)</t>
+  </si>
+  <si>
+    <t>Centers for Chemical Innovation (CCI)_x000D_ Chemistry as the Driver for Transformative Research and</t>
+  </si>
+  <si>
+    <t>Campus Cyberinfrastructure - Data, Networking, and Innovation_x000D_ Program (CC*DNI)</t>
+  </si>
+  <si>
+    <t>Building Community and Capacity in Data Intensive Research _x000D_ in Education (BCC-EHR)</t>
+  </si>
+  <si>
+    <t>Biological Anthroplogy Program - Doctoral Dissertation Research_x000D_ Improvement Grants (BA-DDRIG)</t>
+  </si>
+  <si>
+    <t>Big Data Regional Innovation Hubs: Establishing Spokes to Advance Big Data_x000D_ Applications (BD Spokes)</t>
+  </si>
+  <si>
+    <t>Big Data Regional Innovation Hubs (BD Hubs)_x000D_ Accelerating the Big Data Innovation</t>
+  </si>
+  <si>
+    <t>Critical Techniques, Technologies and Methodologies _x000D_ for Advancing Foundations and Applications of Big Data</t>
+  </si>
+  <si>
+    <t>Critical Resilient Interdependent Infrastructure _x000D_ Systems and Processes (CRISP)</t>
+  </si>
+  <si>
+    <t>Reslilient Interdependent Infrastructure Processes and Systems_x000D_ (RIPS)</t>
+  </si>
+  <si>
+    <t>Cracking the Olfactory Code (Olfactory) _x000D_ An Ideas Lab Activity</t>
+  </si>
+  <si>
+    <t>Coupling, Energetics, and Dynamics of Atmospheric _x000D_ Regions (CEDAR)</t>
+  </si>
+  <si>
+    <t>Continental Scientific Drilling Coordination Office for the _x000D_ Division of Earth Sciences (CSDCO) (nsf 13-514)</t>
+  </si>
+  <si>
+    <t>Consortium for Advanced Manufacturing Foresights: Defining the Critical Needs_x000D_ of the Advanced Manufacturing Research Community</t>
+  </si>
+  <si>
+    <t>Conferences and Workshops in the Mathematical Sciences</t>
+  </si>
+  <si>
+    <t>Computing and Communication Foundations (CCF: Core Programs</t>
+  </si>
+  <si>
+    <t>Collections in Support of Biological Research (CSBR)</t>
+  </si>
+  <si>
+    <t>Collaborative Research in Computational Neuroscience_x000D_ (CRCNS) Innovative Approaches to Science and</t>
+  </si>
+  <si>
+    <t>Coastal SEES (Coastal SEES)</t>
+  </si>
+  <si>
+    <t>CISE-MPS Interdisciplinary Faculty Program in Quantum Information _x000D_ Science</t>
+  </si>
+  <si>
+    <t>CISE Research Infrastructure: Mid-Scale Infrastructure - NSFCloud_x000D_ (CRI: NSFCloud)</t>
+  </si>
+  <si>
+    <t>CISE Research Infrastructure (CRI)</t>
+  </si>
+  <si>
+    <t>Computer and Information Science and Engineering (CISE) Research  Initiation</t>
+  </si>
+  <si>
+    <t>Computer and Network Systems (CNS): Core Programs</t>
+  </si>
+  <si>
+    <t>Integrative Strategies for Understanding Neural and Cognitive Systems_x000D_ (NSF-NCS)</t>
+  </si>
+  <si>
+    <t>Partnerships for Innovation: Building Innovation Capacity (PFI:BIC)</t>
+  </si>
+  <si>
+    <t>GEO Opportunities for Leadership in Diversity (GOLD)_x000D_ An Ideas Lab Activity</t>
+  </si>
+  <si>
     <t>Division of Environmental Biology (core programs) (DEB)</t>
   </si>
   <si>
+    <t>Long-Term Ecological Research (LTER)New Site Competition</t>
+  </si>
+  <si>
+    <t>Ideas Lab: Measuring "Big G" Challenge</t>
+  </si>
+  <si>
+    <t>Division nof Integrative Organismal Systems</t>
+  </si>
+  <si>
+    <t>Expeditions in Computing</t>
+  </si>
+  <si>
+    <t>Focused Research Hubs in Theoretical Physics (FRHTP)</t>
+  </si>
+  <si>
+    <t>Presidential Awards for Excellence in Science, Mathematics _x000D_ and Engineering Mentoring (PAESMEM)</t>
+  </si>
+  <si>
+    <t>EMERGING FRONTIERS IN RESEARCH AND INNOVATION 2016 (EFRI-2016)_x000D_ 1. Advancing Communication Quantum Information Research in Engineering</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2009/nsf09562/nsf09562.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15579/nsf15579.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15529/nsf15529.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2013/nsf13540/nsf13540.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14573/nsf14573.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14505/nsf14505.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15593/nsf15593.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15576/nsf15576.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15582/nsf15582.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14577/nsf14577.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2012/nsf12515/nsf12515.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16515/nsf16515.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2011/nsf11523/nsf11523.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2012/nsf12502/nsf12502.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14509/nsf14509.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2012/nsf12589/nsf12589.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14584/nsf14584.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2012/nsf12553/nsf12553.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15543/nsf15543.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15554/nsf15554.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15538/nsf15538.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16525/nsf16525.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14583/nsf14583.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15534/nsf15534.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15563/nsf15563.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14561/nsf14561.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16510/nsf16510.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15562/nsf15562.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16512/nsf16512.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16519/nsf16519.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14524/nsf14524.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15547/nsf15547.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14545/nsf14545.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2013/nsf13514/nsf13514.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15565/nsf15565.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2010/nsf10578/nsf10578.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15573/nsf15573.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15577/nsf15577.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15595/nsf15595.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2014/nsf14502/nsf14502.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15512/nsf15512.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2013/nsf13602/nsf13602.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15590/nsf15590.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15569/nsf15569.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15572/nsf15572.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16508/nsf16508.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2015/nsf15610/nsf15610.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16516/nsf16516.htm</t>
+  </si>
+  <si>
     <t>http://www.nsf.gov/pubs/2015/nsf15609/nsf15609.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16509/nsf16509.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16520/nsf16520.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16505/nsf16505.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16535/nsf16535.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16501/nsf16501.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16534/nsf16534.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2016/nsf16502/nsf16502.htm</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Algebra and Number Theory</t>
+  </si>
+  <si>
+    <t>Aeronomy</t>
+  </si>
+  <si>
+    <t>Atmospheric Chemistry</t>
+  </si>
+  <si>
+    <t>Archaeology and Archaeometry</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Chemical and Biological Separations</t>
+  </si>
+  <si>
+    <t>Ceramics_x000D_
+  _x000D_
+     (CER)</t>
+  </si>
+  <si>
+    <t>Catalysis and Biocatalysis</t>
+  </si>
+  <si>
+    <t>Broadening Participation in Engineering_x000D_
+  _x000D_
+     (BPE)</t>
+  </si>
+  <si>
+    <t>Biotechnology and Biochemical Engineering</t>
+  </si>
+  <si>
+    <t>Biophotonics</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering_x000D_
+  _x000D_
+     (BME)</t>
+  </si>
+  <si>
+    <t>Biomechanics and Mechanobiology_x000D_
+  _x000D_
+     (BMMB)</t>
+  </si>
+  <si>
+    <t>Biomaterials_x000D_
+  _x000D_
+     (BMAT)</t>
+  </si>
+  <si>
+    <t>Biological Oceanography</t>
+  </si>
+  <si>
+    <t>Biological Anthropology</t>
+  </si>
+  <si>
+    <t>Benchmarks of Realistic Scientific Application Performance of Large-Scale Computing Systems_x000D_
+  _x000D_
+     (BRAP)</t>
+  </si>
+  <si>
+    <t>Communications, Circuits, and Sensing-Systems_x000D_
+  _x000D_
+     (CCSS)</t>
+  </si>
+  <si>
+    <t>Cooperative Activity with Department of Energy Programs for Education and Human Resource Development (Request for Supplement)</t>
+  </si>
+  <si>
+    <t>Condensed Matter Physics_x000D_
+  _x000D_
+     (CMP)</t>
+  </si>
+  <si>
+    <t>Condensed Matter and Materials Theory_x000D_
+  _x000D_
+     (CMMT)</t>
+  </si>
+  <si>
+    <t>Combustion and Fire Systems</t>
+  </si>
+  <si>
+    <t>Combinatorics</t>
+  </si>
+  <si>
+    <t>Cognitive Neuroscience_x000D_
+  _x000D_
+     (CogNeuro)</t>
+  </si>
+  <si>
+    <t>Climate and Large-Scale Dynamics_x000D_
+  _x000D_
+     (CLD)</t>
+  </si>
+  <si>
+    <t>Civil Infrastructure Systems_x000D_
+  _x000D_
+     (CIS)</t>
+  </si>
+  <si>
+    <t>Chemistry Research Experiences for Undergraduates_x000D_
+  _x000D_
+     (REU)</t>
+  </si>
+  <si>
+    <t>Chemistry of Life Processes_x000D_
+  _x000D_
+     (CLP)</t>
+  </si>
+  <si>
+    <t>Chemical Theory, Models and Computational Methods_x000D_
+  _x000D_
+     (CTMC)</t>
+  </si>
+  <si>
+    <t>Chemical Synthesis_x000D_
+  _x000D_
+     (SYN)</t>
+  </si>
+  <si>
+    <t>Chemical Structure, Dynamics and Mechanisms (CSDM-B)</t>
+  </si>
+  <si>
+    <t>Chemical Structure, Dynamics and Mechanisms (CSDM-A)</t>
+  </si>
+  <si>
+    <t>Chemical Oceanography</t>
+  </si>
+  <si>
+    <t>Chemical Measurement and Imaging_x000D_
+  _x000D_
+     (CMI)</t>
+  </si>
+  <si>
+    <t>Chemical Catalysis_x000D_
+  _x000D_
+     (CAT)</t>
+  </si>
+  <si>
+    <t>Computational Physics</t>
+  </si>
+  <si>
+    <t>Computational Mathematics</t>
+  </si>
+  <si>
+    <t>Computational and Data-Enabled Science and Engineering in Mathematical and Statistical Sciences_x000D_
+  _x000D_
+     (CDS&amp;E-MSS)</t>
+  </si>
+  <si>
+    <t>Computational and Data-Enabled Science and Engineering_x000D_
+  _x000D_
+     (CDS&amp;E)</t>
+  </si>
+  <si>
+    <t>Developmental and Learning Sciences_x000D_
+  _x000D_
+     (DLS)</t>
+  </si>
+  <si>
+    <t>LIGO Research Support</t>
+  </si>
+  <si>
+    <t>Structural and Architectural Engineering and Materials_x000D_
+  _x000D_
+     (SAE)</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Energy, Power, Control and Networks_x000D_
+  _x000D_
+     (EPCN)</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials and Structures_x000D_
+  _x000D_
+     (MOMS)</t>
+  </si>
+  <si>
+    <t>Nanomanufacturing_x000D_
+  _x000D_
+     (NM)</t>
+  </si>
+  <si>
+    <t>Social Psychology</t>
+  </si>
+  <si>
+    <t>Electronics, Photonics, and Magnetic Devices_x000D_
+  _x000D_
+     (EPMD)</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Research in the Formation of Engineers (RFE)</t>
+  </si>
+  <si>
+    <t>Infrastructure Management and Extreme Events_x000D_
+  _x000D_
+     (IMEE)</t>
+  </si>
+  <si>
+    <t>Marine Geology and Geophysics</t>
+  </si>
+  <si>
+    <t>Polymers_x000D_
+  _x000D_
+     (POL)</t>
+  </si>
+  <si>
+    <t>Engineering for Natural Hazards_x000D_
+  _x000D_
+     (ENH)</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5434</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5431</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11686</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11692</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11690</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5664</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13363</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5352</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13360</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504870</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=501024</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=501025</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=501023</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13523</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13699</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11696</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5407</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=505151</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13381</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5632</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5666</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13623</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13366</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503570</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5316</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11699</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13352</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503210</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503417</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503420</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503419</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504807</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504796</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11698</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503413</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503418</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=505206</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5390</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504687</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504813</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=8671</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=504855</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13358</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5369</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13380</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13355</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13347</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5712</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13379</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5437</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5418</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=503584</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=13353</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=11726</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5357</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=505177</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5408</t>
   </si>
 </sst>
 </file>
@@ -424,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,33 +1239,1869 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>503634</v>
+        <v>503380</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
+        <v>40722</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9562</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40049</v>
+      </c>
+      <c r="J2" s="2">
+        <v>39995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>504937</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42369</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>15579</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>13420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>15529</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>503518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41745</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>13540</v>
+      </c>
+      <c r="I5" s="2">
+        <v>41425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5383</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42256</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>14573</v>
+      </c>
+      <c r="I6" s="2">
+        <v>41904</v>
+      </c>
+      <c r="J6" s="2">
+        <v>41862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>12798</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>15529</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>5474</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41919</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>14505</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>504793</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15593</v>
+      </c>
+      <c r="I9" s="2">
+        <v>42312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>503559</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42180</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>15576</v>
+      </c>
+      <c r="I10" s="2">
+        <v>42286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>5444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>15582</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>5464</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42284</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>14577</v>
+      </c>
+      <c r="I12" s="2">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>504720</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40948</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12515</v>
+      </c>
+      <c r="I13" s="2">
+        <v>40954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>8173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>15529</v>
+      </c>
+      <c r="I14" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>505125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>16515</v>
+      </c>
+      <c r="I15" s="2">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>501066</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40561</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>11523</v>
+      </c>
+      <c r="I16" s="2">
+        <v>40646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>503427</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41544</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>12502</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>503240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15529</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>5519</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>15529</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>13622</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42369</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>15579</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>12779</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41870</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>14509</v>
+      </c>
+      <c r="I21" s="2">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>13630</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12589</v>
+      </c>
+      <c r="I22" s="2">
+        <v>41228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>13424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42311</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>14584</v>
+      </c>
+      <c r="I23" s="2">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>503604</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>41416</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>12553</v>
+      </c>
+      <c r="I24" s="2">
+        <v>41166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>505157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42282</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>15543</v>
+      </c>
+      <c r="I25" s="2">
+        <v>42142</v>
+      </c>
+      <c r="J25" s="2">
+        <v>42111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>13421</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>15529</v>
+      </c>
+      <c r="I26" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>503222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42311</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>14584</v>
+      </c>
+      <c r="I27" s="2">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>503273</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42369</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>15579</v>
+      </c>
+      <c r="I28" s="2">
+        <v>42305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>505076</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42312</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>15554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>503285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42391</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>15538</v>
+      </c>
+      <c r="I30" s="2">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>6668</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>16525</v>
+      </c>
+      <c r="I31" s="2">
+        <v>42531</v>
+      </c>
+      <c r="J31" s="2">
+        <v>42433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>13635</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42045</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>14583</v>
+      </c>
+      <c r="I32" s="2">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>504748</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>15534</v>
+      </c>
+      <c r="I33" s="2">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>505161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>15563</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>505067</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42012</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>14561</v>
+      </c>
+      <c r="I35" s="2">
+        <v>41848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>13448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42311</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>14584</v>
+      </c>
+      <c r="I36" s="2">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>13422</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42359</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>15529</v>
+      </c>
+      <c r="I37" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>505264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>16510</v>
+      </c>
+      <c r="I38" s="2">
+        <v>42425</v>
+      </c>
+      <c r="J38" s="2">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>505185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42167</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>15562</v>
+      </c>
+      <c r="I39" s="2">
+        <v>42179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>504767</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42380</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>16512</v>
+      </c>
+      <c r="I40" s="2">
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>505277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42349</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>16519</v>
+      </c>
+      <c r="I41" s="2">
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>504971</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41631</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>14524</v>
+      </c>
+      <c r="I42" s="2">
+        <v>41717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>504773</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42062</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>15547</v>
+      </c>
+      <c r="I43" s="2">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>5503</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42234</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>14545</v>
+      </c>
+      <c r="I44" s="2">
+        <v>41837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>504840</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41220</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>13514</v>
+      </c>
+      <c r="I45" s="2">
+        <v>41327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>505203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2">
+        <v>42115</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>15565</v>
+      </c>
+      <c r="I46" s="2">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>11701</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>42271</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>10578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>503220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>15573</v>
+      </c>
+      <c r="I48" s="2">
+        <v>42263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>5521</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>42311</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>14584</v>
+      </c>
+      <c r="I49" s="2">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>503651</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42164</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>15577</v>
+      </c>
+      <c r="I50" s="2">
+        <v>42257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>5147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>42220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>15595</v>
+      </c>
+      <c r="I51" s="2">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>504816</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42283</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>14502</v>
+      </c>
+      <c r="I52" s="2">
+        <v>41660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>504743</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41946</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>15512</v>
+      </c>
+      <c r="I53" s="2">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>504951</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41541</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>13602</v>
+      </c>
+      <c r="I54" s="2">
+        <v>41625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>12810</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42347</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>15590</v>
+      </c>
+      <c r="I55" s="2">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>504952</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42271</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>15569</v>
+      </c>
+      <c r="I56" s="2">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>12765</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>15572</v>
+      </c>
+      <c r="I57" s="2">
+        <v>42263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>505132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2">
+        <v>42338</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>16508</v>
+      </c>
+      <c r="I58" s="2">
+        <v>42395</v>
+      </c>
+      <c r="J58" s="2">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>504708</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42396</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>15610</v>
+      </c>
+      <c r="I59" s="2">
+        <v>42398</v>
+      </c>
+      <c r="J59" s="2">
+        <v>42340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>505271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42397</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>16516</v>
+      </c>
+      <c r="I60" s="2">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>503634</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
         <v>42382</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>15609</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I61" s="2">
         <v>42584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>505270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42402</v>
+      </c>
+      <c r="E62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>16509</v>
+      </c>
+      <c r="I62" s="2">
+        <v>42584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>505229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42349</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>16520</v>
+      </c>
+      <c r="I63" s="2">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>503623</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>42354</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>16505</v>
+      </c>
+      <c r="I64" s="2">
+        <v>42522</v>
+      </c>
+      <c r="J64" s="2">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>503169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>42402</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>16535</v>
+      </c>
+      <c r="I65" s="2">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>505256</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42282</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>16501</v>
+      </c>
+      <c r="I66" s="2">
+        <v>42391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>5473</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42394</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>16534</v>
+      </c>
+      <c r="I67" s="2">
+        <v>42538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>13708</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42299</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>16502</v>
+      </c>
+      <c r="I68" s="2">
+        <v>42468</v>
+      </c>
+      <c r="J68" s="2">
+        <v>42317</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,7 +3109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,7 +3147,693 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>5434</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>5431</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>11686</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>11692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>11690</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5664</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>13363</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>5352</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>13360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>504870</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>501024</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>501025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>501023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13523</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>13699</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>11696</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>5407</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>505151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>13381</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>5632</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>5666</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>13623</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>13366</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>503570</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>5316</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>11699</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>13352</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>503210</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>503417</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>503420</v>
+      </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>503419</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>504807</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>504796</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>11698</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>503413</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>503418</v>
+      </c>
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>505206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>5390</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>504687</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>504813</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>8671</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>504855</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>13358</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>5369</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>13380</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>13355</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>13347</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>5712</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>13379</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>5437</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>5418</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>503584</v>
+      </c>
+      <c r="E53" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>13353</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>11726</v>
+      </c>
+      <c r="E55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>5357</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>505177</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>5408</v>
+      </c>
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nsf_solicitations.xlsx
+++ b/nsf_solicitations.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Gregory\Factory\nsf_scraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="solicitations" sheetId="1" r:id="rId1"/>
     <sheet name="filtered_solicitations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="778">
   <si>
     <t>limit_per_org_text</t>
   </si>
@@ -976,6 +971,12 @@
     <t>NSF Director's Award for Distinguished Teaching Scholars (DTS) Date: 06/17/0</t>
   </si>
   <si>
+    <t>NSF-NIST Interaction in Basic and Applied Scientific Research in BIO, ENG &amp; MPS</t>
+  </si>
+  <si>
+    <t>Developing Country Collaborations in Plant Genome Research (DCC-PGR)</t>
+  </si>
+  <si>
     <t>http://www.nsf.gov/pubs/2009/nsf09562/nsf09562.htm</t>
   </si>
   <si>
@@ -1694,6 +1695,12 @@
   </si>
   <si>
     <t>http://www.nsf.gov/pubs/2004/nsf04594/nsf04594.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2011/nsf11066/nsf11066.htm</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/pubs/2004/nsf04563/nsf04563.htm</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -2450,28 +2457,16 @@
   </si>
   <si>
     <t>http://www.nsf.gov/funding/pgm_summ.jsp?pims_id=5549</t>
-  </si>
-  <si>
-    <t>NSF-NIST Interaction in Basic and Applied Scientific Research in BIO, ENG &amp; MPS</t>
-  </si>
-  <si>
-    <t>http://www.nsf.gov/pubs/2011/nsf11066/nsf11066.htm</t>
-  </si>
-  <si>
-    <t>Developing Country Collaborations in Plant Genome Research (DCC-PGR)</t>
-  </si>
-  <si>
-    <t>http://www.nsf.gov/pubs/2004/nsf04563/nsf04563.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2495,14 +2490,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2512,7 +2499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2535,48 +2522,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2623,7 +2585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2655,10 +2617,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2690,7 +2651,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2866,27 +2826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>503380</v>
       </c>
@@ -2935,7 +2882,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2950,7 +2897,7 @@
         <v>39995</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>504937</v>
       </c>
@@ -2964,7 +2911,7 @@
         <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2976,7 +2923,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>13420</v>
       </c>
@@ -2990,7 +2937,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3002,7 +2949,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>503518</v>
       </c>
@@ -3016,7 +2963,7 @@
         <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3028,7 +2975,7 @@
         <v>41425</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5383</v>
       </c>
@@ -3045,7 +2992,7 @@
         <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3060,7 +3007,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>12798</v>
       </c>
@@ -3074,7 +3021,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3086,7 +3033,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>5474</v>
       </c>
@@ -3103,7 +3050,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3115,7 +3062,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>504793</v>
       </c>
@@ -3129,7 +3076,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3141,7 +3088,7 @@
         <v>42312</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>503559</v>
       </c>
@@ -3158,7 +3105,7 @@
         <v>84</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3170,7 +3117,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>5444</v>
       </c>
@@ -3184,7 +3131,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3196,7 +3143,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>5464</v>
       </c>
@@ -3210,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3222,7 +3169,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>504720</v>
       </c>
@@ -3236,7 +3183,7 @@
         <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3248,7 +3195,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>8173</v>
       </c>
@@ -3262,7 +3209,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3274,7 +3221,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>505125</v>
       </c>
@@ -3288,7 +3235,7 @@
         <v>88</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3300,7 +3247,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>501066</v>
       </c>
@@ -3314,7 +3261,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3326,7 +3273,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>503427</v>
       </c>
@@ -3340,7 +3287,7 @@
         <v>90</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3352,7 +3299,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>503240</v>
       </c>
@@ -3366,7 +3313,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3378,7 +3325,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>5519</v>
       </c>
@@ -3392,7 +3339,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3404,7 +3351,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>13622</v>
       </c>
@@ -3418,7 +3365,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3430,7 +3377,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>12779</v>
       </c>
@@ -3444,7 +3391,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3456,7 +3403,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>13630</v>
       </c>
@@ -3470,7 +3417,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3482,7 +3429,7 @@
         <v>41228</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>13424</v>
       </c>
@@ -3496,7 +3443,7 @@
         <v>93</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3508,7 +3455,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>503604</v>
       </c>
@@ -3522,7 +3469,7 @@
         <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3534,7 +3481,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>505157</v>
       </c>
@@ -3551,7 +3498,7 @@
         <v>95</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3566,7 +3513,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>13421</v>
       </c>
@@ -3580,7 +3527,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3592,7 +3539,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>503222</v>
       </c>
@@ -3606,7 +3553,7 @@
         <v>93</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3618,7 +3565,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>503273</v>
       </c>
@@ -3632,7 +3579,7 @@
         <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3644,7 +3591,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>505076</v>
       </c>
@@ -3658,7 +3605,7 @@
         <v>96</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3667,7 +3614,7 @@
         <v>15554</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>503285</v>
       </c>
@@ -3681,7 +3628,7 @@
         <v>97</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3693,7 +3640,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>6668</v>
       </c>
@@ -3710,7 +3657,7 @@
         <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3725,7 +3672,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>13635</v>
       </c>
@@ -3739,7 +3686,7 @@
         <v>99</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3751,7 +3698,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>504748</v>
       </c>
@@ -3765,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3777,7 +3724,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>505161</v>
       </c>
@@ -3791,7 +3738,7 @@
         <v>101</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3803,7 +3750,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>505067</v>
       </c>
@@ -3817,7 +3764,7 @@
         <v>102</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3829,7 +3776,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>13448</v>
       </c>
@@ -3843,7 +3790,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3855,7 +3802,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>13422</v>
       </c>
@@ -3869,7 +3816,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3881,7 +3828,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>505264</v>
       </c>
@@ -3895,7 +3842,7 @@
         <v>103</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3910,7 +3857,7 @@
         <v>42381</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>505185</v>
       </c>
@@ -3927,7 +3874,7 @@
         <v>104</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3939,7 +3886,7 @@
         <v>42179</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>504767</v>
       </c>
@@ -3953,7 +3900,7 @@
         <v>105</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3965,7 +3912,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>505277</v>
       </c>
@@ -3979,7 +3926,7 @@
         <v>106</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3991,7 +3938,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>504971</v>
       </c>
@@ -4005,7 +3952,7 @@
         <v>107</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4017,7 +3964,7 @@
         <v>41717</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>504773</v>
       </c>
@@ -4031,7 +3978,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4043,7 +3990,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>5503</v>
       </c>
@@ -4057,7 +4004,7 @@
         <v>109</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4069,7 +4016,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>504840</v>
       </c>
@@ -4086,7 +4033,7 @@
         <v>110</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4098,7 +4045,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>505203</v>
       </c>
@@ -4115,7 +4062,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4127,7 +4074,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>11701</v>
       </c>
@@ -4141,7 +4088,7 @@
         <v>112</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4150,7 +4097,7 @@
         <v>10578</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>503220</v>
       </c>
@@ -4164,7 +4111,7 @@
         <v>113</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4176,7 +4123,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>5521</v>
       </c>
@@ -4190,7 +4137,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4202,7 +4149,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>503651</v>
       </c>
@@ -4219,7 +4166,7 @@
         <v>114</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4231,7 +4178,7 @@
         <v>42257</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>5147</v>
       </c>
@@ -4245,7 +4192,7 @@
         <v>115</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4257,7 +4204,7 @@
         <v>42306</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>504816</v>
       </c>
@@ -4271,7 +4218,7 @@
         <v>116</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4283,7 +4230,7 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>504743</v>
       </c>
@@ -4297,7 +4244,7 @@
         <v>117</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4309,7 +4256,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>504951</v>
       </c>
@@ -4323,7 +4270,7 @@
         <v>118</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4335,7 +4282,7 @@
         <v>41625</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>12810</v>
       </c>
@@ -4349,7 +4296,7 @@
         <v>119</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4361,7 +4308,7 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>504952</v>
       </c>
@@ -4375,7 +4322,7 @@
         <v>120</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4387,7 +4334,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>12765</v>
       </c>
@@ -4401,7 +4348,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4413,7 +4360,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>505132</v>
       </c>
@@ -4427,7 +4374,7 @@
         <v>122</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4442,7 +4389,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>504708</v>
       </c>
@@ -4459,7 +4406,7 @@
         <v>123</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -4474,7 +4421,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>505271</v>
       </c>
@@ -4488,7 +4435,7 @@
         <v>124</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4500,7 +4447,7 @@
         <v>42523</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>503634</v>
       </c>
@@ -4514,7 +4461,7 @@
         <v>125</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4526,7 +4473,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>505270</v>
       </c>
@@ -4540,7 +4487,7 @@
         <v>126</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4552,7 +4499,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>505229</v>
       </c>
@@ -4566,7 +4513,7 @@
         <v>127</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4578,7 +4525,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>503623</v>
       </c>
@@ -4592,7 +4539,7 @@
         <v>128</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4607,7 +4554,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>503169</v>
       </c>
@@ -4621,7 +4568,7 @@
         <v>129</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4633,7 +4580,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>505256</v>
       </c>
@@ -4647,7 +4594,7 @@
         <v>130</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4659,7 +4606,7 @@
         <v>42391</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>5473</v>
       </c>
@@ -4673,7 +4620,7 @@
         <v>131</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4685,7 +4632,7 @@
         <v>42538</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>13708</v>
       </c>
@@ -4699,7 +4646,7 @@
         <v>132</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4714,7 +4661,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>13691</v>
       </c>
@@ -4728,7 +4675,7 @@
         <v>133</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4737,7 +4684,7 @@
         <v>16536</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>13544</v>
       </c>
@@ -4751,7 +4698,7 @@
         <v>134</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4763,7 +4710,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>5487</v>
       </c>
@@ -4777,7 +4724,7 @@
         <v>135</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4792,7 +4739,7 @@
         <v>40292</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>504739</v>
       </c>
@@ -4806,7 +4753,7 @@
         <v>136</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4818,7 +4765,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>5269</v>
       </c>
@@ -4832,7 +4779,7 @@
         <v>137</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4844,7 +4791,7 @@
         <v>41962</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>503446</v>
       </c>
@@ -4858,7 +4805,7 @@
         <v>138</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4870,7 +4817,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>505082</v>
       </c>
@@ -4884,7 +4831,7 @@
         <v>139</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4896,7 +4843,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>504832</v>
       </c>
@@ -4910,7 +4857,7 @@
         <v>140</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4922,7 +4869,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>505015</v>
       </c>
@@ -4939,7 +4886,7 @@
         <v>141</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -4954,7 +4901,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>5449</v>
       </c>
@@ -4971,7 +4918,7 @@
         <v>142</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -4983,7 +4930,7 @@
         <v>42380</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>505258</v>
       </c>
@@ -4997,7 +4944,7 @@
         <v>143</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5009,7 +4956,7 @@
         <v>42436</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>503489</v>
       </c>
@@ -5023,7 +4970,7 @@
         <v>144</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5035,7 +4982,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>505159</v>
       </c>
@@ -5052,7 +4999,7 @@
         <v>145</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -5064,7 +5011,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>503641</v>
       </c>
@@ -5078,7 +5025,7 @@
         <v>146</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5090,7 +5037,7 @@
         <v>42436</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>505263</v>
       </c>
@@ -5107,7 +5054,7 @@
         <v>147</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -5122,7 +5069,7 @@
         <v>42380</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>503425</v>
       </c>
@@ -5136,7 +5083,7 @@
         <v>148</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5148,7 +5095,7 @@
         <v>42444</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>5129</v>
       </c>
@@ -5162,7 +5109,7 @@
         <v>149</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5174,7 +5121,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>503382</v>
       </c>
@@ -5188,7 +5135,7 @@
         <v>150</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5200,7 +5147,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>505006</v>
       </c>
@@ -5214,7 +5161,7 @@
         <v>151</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5226,7 +5173,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>505241</v>
       </c>
@@ -5240,7 +5187,7 @@
         <v>152</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5252,7 +5199,7 @@
         <v>42451</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>505176</v>
       </c>
@@ -5266,7 +5213,7 @@
         <v>153</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5281,7 +5228,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>505212</v>
       </c>
@@ -5295,7 +5242,7 @@
         <v>154</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5307,7 +5254,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>504776</v>
       </c>
@@ -5321,7 +5268,7 @@
         <v>155</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5333,7 +5280,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>503224</v>
       </c>
@@ -5347,7 +5294,7 @@
         <v>156</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5359,7 +5306,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>5483</v>
       </c>
@@ -5376,7 +5323,7 @@
         <v>157</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -5388,7 +5335,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>503447</v>
       </c>
@@ -5402,7 +5349,7 @@
         <v>158</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5414,7 +5361,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>5321</v>
       </c>
@@ -5428,7 +5375,7 @@
         <v>159</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5437,7 +5384,7 @@
         <v>7544</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>7671</v>
       </c>
@@ -5451,7 +5398,7 @@
         <v>160</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5463,7 +5410,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>505242</v>
       </c>
@@ -5480,7 +5427,7 @@
         <v>161</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5492,7 +5439,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>505265</v>
       </c>
@@ -5509,7 +5456,7 @@
         <v>162</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -5521,7 +5468,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>505027</v>
       </c>
@@ -5538,7 +5485,7 @@
         <v>163</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5550,7 +5497,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>13403</v>
       </c>
@@ -5564,7 +5511,7 @@
         <v>164</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5576,7 +5523,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>504780</v>
       </c>
@@ -5590,7 +5537,7 @@
         <v>165</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5602,7 +5549,7 @@
         <v>42453</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>504699</v>
       </c>
@@ -5616,7 +5563,7 @@
         <v>166</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5625,7 +5572,7 @@
         <v>12513</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>504842</v>
       </c>
@@ -5639,7 +5586,7 @@
         <v>167</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5651,7 +5598,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>5517</v>
       </c>
@@ -5665,7 +5612,7 @@
         <v>168</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5677,7 +5624,7 @@
         <v>41418</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>503361</v>
       </c>
@@ -5694,7 +5641,7 @@
         <v>169</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -5706,7 +5653,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>503473</v>
       </c>
@@ -5720,7 +5667,7 @@
         <v>170</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5732,7 +5679,7 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>5750</v>
       </c>
@@ -5746,7 +5693,7 @@
         <v>171</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5758,7 +5705,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>503399</v>
       </c>
@@ -5772,7 +5719,7 @@
         <v>172</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5784,7 +5731,7 @@
         <v>41631</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>5292</v>
       </c>
@@ -5798,7 +5745,7 @@
         <v>173</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5810,7 +5757,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>5732</v>
       </c>
@@ -5824,7 +5771,7 @@
         <v>174</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5836,7 +5783,7 @@
         <v>41926</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>504973</v>
       </c>
@@ -5853,7 +5800,7 @@
         <v>175</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -5868,7 +5815,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>505149</v>
       </c>
@@ -5885,7 +5832,7 @@
         <v>176</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -5900,7 +5847,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>505033</v>
       </c>
@@ -5914,7 +5861,7 @@
         <v>177</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5923,7 +5870,7 @@
         <v>14551</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>13683</v>
       </c>
@@ -5937,7 +5884,7 @@
         <v>178</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5946,7 +5893,7 @@
         <v>15557</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>503480</v>
       </c>
@@ -5960,7 +5907,7 @@
         <v>179</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5972,7 +5919,7 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>5257</v>
       </c>
@@ -5989,7 +5936,7 @@
         <v>180</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -6001,7 +5948,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>503534</v>
       </c>
@@ -6015,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6027,7 +5974,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>5602</v>
       </c>
@@ -6041,7 +5988,7 @@
         <v>181</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6050,7 +5997,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>505168</v>
       </c>
@@ -6064,7 +6011,7 @@
         <v>182</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6076,7 +6023,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>5451</v>
       </c>
@@ -6090,7 +6037,7 @@
         <v>183</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6102,7 +6049,7 @@
         <v>39146</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>504930</v>
       </c>
@@ -6116,7 +6063,7 @@
         <v>184</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6128,7 +6075,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>504802</v>
       </c>
@@ -6145,7 +6092,7 @@
         <v>185</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -6157,7 +6104,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>13426</v>
       </c>
@@ -6171,7 +6118,7 @@
         <v>186</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6183,7 +6130,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>505085</v>
       </c>
@@ -6197,7 +6144,7 @@
         <v>187</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6209,7 +6156,7 @@
         <v>42055</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>503621</v>
       </c>
@@ -6223,7 +6170,7 @@
         <v>188</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6235,7 +6182,7 @@
         <v>41865</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>505136</v>
       </c>
@@ -6249,7 +6196,7 @@
         <v>189</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6261,7 +6208,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>503429</v>
       </c>
@@ -6278,7 +6225,7 @@
         <v>190</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -6293,7 +6240,7 @@
         <v>42192</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>503144</v>
       </c>
@@ -6307,7 +6254,7 @@
         <v>191</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6319,7 +6266,7 @@
         <v>42381</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>505058</v>
       </c>
@@ -6333,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6345,7 +6292,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>505038</v>
       </c>
@@ -6362,7 +6309,7 @@
         <v>192</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -6374,7 +6321,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>505105</v>
       </c>
@@ -6391,7 +6338,7 @@
         <v>193</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -6406,7 +6353,7 @@
         <v>42318</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>503259</v>
       </c>
@@ -6423,7 +6370,7 @@
         <v>194</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -6438,7 +6385,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>503477</v>
       </c>
@@ -6452,7 +6399,7 @@
         <v>195</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6461,10 +6408,10 @@
         <v>12600</v>
       </c>
       <c r="I133" s="2">
-        <v>41611.708333333299</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41611.7083333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>505073</v>
       </c>
@@ -6478,7 +6425,7 @@
         <v>196</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6490,7 +6437,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>503587</v>
       </c>
@@ -6507,7 +6454,7 @@
         <v>197</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -6519,7 +6466,7 @@
         <v>40590</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>504848</v>
       </c>
@@ -6533,7 +6480,7 @@
         <v>198</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6542,7 +6489,7 @@
         <v>13589</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>501046</v>
       </c>
@@ -6556,7 +6503,7 @@
         <v>199</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6568,7 +6515,7 @@
         <v>41513</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>6682</v>
       </c>
@@ -6582,7 +6529,7 @@
         <v>200</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -6594,7 +6541,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>5265</v>
       </c>
@@ -6608,7 +6555,7 @@
         <v>201</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6620,7 +6567,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>12816</v>
       </c>
@@ -6634,7 +6581,7 @@
         <v>202</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6646,7 +6593,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>504995</v>
       </c>
@@ -6660,7 +6607,7 @@
         <v>203</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6672,7 +6619,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>5260</v>
       </c>
@@ -6689,7 +6636,7 @@
         <v>204</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -6701,7 +6648,7 @@
         <v>42026</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>505092</v>
       </c>
@@ -6715,7 +6662,7 @@
         <v>205</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6724,7 +6671,7 @@
         <v>15583</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>5627</v>
       </c>
@@ -6738,7 +6685,7 @@
         <v>78</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6750,7 +6697,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>5501</v>
       </c>
@@ -6764,7 +6711,7 @@
         <v>206</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6779,7 +6726,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>5749</v>
       </c>
@@ -6793,7 +6740,7 @@
         <v>207</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6805,7 +6752,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>13681</v>
       </c>
@@ -6819,7 +6766,7 @@
         <v>208</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6831,7 +6778,7 @@
         <v>41961</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>5467</v>
       </c>
@@ -6845,7 +6792,7 @@
         <v>209</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6857,7 +6804,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>504833</v>
       </c>
@@ -6871,7 +6818,7 @@
         <v>210</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6883,7 +6830,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>13646</v>
       </c>
@@ -6900,7 +6847,7 @@
         <v>211</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -6912,7 +6859,7 @@
         <v>42312</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>504991</v>
       </c>
@@ -6926,7 +6873,7 @@
         <v>212</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6938,7 +6885,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>505144</v>
       </c>
@@ -6952,7 +6899,7 @@
         <v>213</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6964,7 +6911,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>5541</v>
       </c>
@@ -6981,7 +6928,7 @@
         <v>214</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -6990,7 +6937,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>505204</v>
       </c>
@@ -7007,7 +6954,7 @@
         <v>215</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -7019,7 +6966,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>500047</v>
       </c>
@@ -7033,7 +6980,7 @@
         <v>216</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -7045,7 +6992,7 @@
         <v>42345</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>12831</v>
       </c>
@@ -7059,7 +7006,7 @@
         <v>217</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -7071,7 +7018,7 @@
         <v>41142</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>5502</v>
       </c>
@@ -7085,7 +7032,7 @@
         <v>218</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -7100,7 +7047,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>13690</v>
       </c>
@@ -7114,7 +7061,7 @@
         <v>219</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -7123,7 +7070,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>13684</v>
       </c>
@@ -7137,7 +7084,7 @@
         <v>220</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -7146,7 +7093,7 @@
         <v>15558</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>13516</v>
       </c>
@@ -7160,7 +7107,7 @@
         <v>221</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7169,7 +7116,7 @@
         <v>15564</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>13689</v>
       </c>
@@ -7183,7 +7130,7 @@
         <v>222</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -7192,7 +7139,7 @@
         <v>15559</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>503622</v>
       </c>
@@ -7206,7 +7153,7 @@
         <v>223</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7218,7 +7165,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>503626</v>
       </c>
@@ -7232,7 +7179,7 @@
         <v>224</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -7244,7 +7191,7 @@
         <v>41304</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>505214</v>
       </c>
@@ -7258,7 +7205,7 @@
         <v>225</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7267,7 +7214,7 @@
         <v>15571</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>504790</v>
       </c>
@@ -7281,7 +7228,7 @@
         <v>226</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7296,7 +7243,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>13425</v>
       </c>
@@ -7310,7 +7257,7 @@
         <v>186</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -7322,7 +7269,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>13682</v>
       </c>
@@ -7336,7 +7283,7 @@
         <v>227</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7345,7 +7292,7 @@
         <v>12598</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>504938</v>
       </c>
@@ -7362,7 +7309,7 @@
         <v>228</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -7377,7 +7324,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>504709</v>
       </c>
@@ -7391,7 +7338,7 @@
         <v>229</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -7403,7 +7350,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>501035</v>
       </c>
@@ -7417,7 +7364,7 @@
         <v>230</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -7426,7 +7373,7 @@
         <v>15578</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>13707</v>
       </c>
@@ -7440,7 +7387,7 @@
         <v>231</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7452,7 +7399,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>503603</v>
       </c>
@@ -7466,7 +7413,7 @@
         <v>232</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7478,7 +7425,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>504874</v>
       </c>
@@ -7495,7 +7442,7 @@
         <v>233</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -7507,7 +7454,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>503286</v>
       </c>
@@ -7521,7 +7468,7 @@
         <v>234</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -7533,7 +7480,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>505195</v>
       </c>
@@ -7550,7 +7497,7 @@
         <v>235</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -7562,7 +7509,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>505190</v>
       </c>
@@ -7579,7 +7526,7 @@
         <v>236</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -7591,7 +7538,7 @@
         <v>42171</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>505169</v>
       </c>
@@ -7608,7 +7555,7 @@
         <v>237</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -7623,7 +7570,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>5338</v>
       </c>
@@ -7637,7 +7584,7 @@
         <v>238</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -7646,7 +7593,7 @@
         <v>15548</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>505103</v>
       </c>
@@ -7660,7 +7607,7 @@
         <v>239</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -7672,7 +7619,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>5481</v>
       </c>
@@ -7689,7 +7636,7 @@
         <v>240</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -7704,7 +7651,7 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>505170</v>
       </c>
@@ -7721,7 +7668,7 @@
         <v>241</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -7733,7 +7680,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <v>503214</v>
       </c>
@@ -7747,7 +7694,7 @@
         <v>242</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -7759,7 +7706,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <v>505057</v>
       </c>
@@ -7773,7 +7720,7 @@
         <v>243</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -7782,7 +7729,7 @@
         <v>15556</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <v>504924</v>
       </c>
@@ -7796,7 +7743,7 @@
         <v>244</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7808,7 +7755,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <v>505133</v>
       </c>
@@ -7825,7 +7772,7 @@
         <v>245</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -7837,7 +7784,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <v>504829</v>
       </c>
@@ -7851,7 +7798,7 @@
         <v>246</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -7863,7 +7810,7 @@
         <v>42059</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <v>505171</v>
       </c>
@@ -7880,7 +7827,7 @@
         <v>247</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -7892,7 +7839,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <v>13673</v>
       </c>
@@ -7906,7 +7853,7 @@
         <v>248</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -7915,7 +7862,7 @@
         <v>14609</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>5421</v>
       </c>
@@ -7929,7 +7876,7 @@
         <v>249</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -7941,7 +7888,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <v>5439</v>
       </c>
@@ -7958,7 +7905,7 @@
         <v>250</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -7970,7 +7917,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <v>11691</v>
       </c>
@@ -7984,7 +7931,7 @@
         <v>251</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -7996,7 +7943,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <v>5733</v>
       </c>
@@ -8010,7 +7957,7 @@
         <v>252</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -8022,7 +7969,7 @@
         <v>42080</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>504984</v>
       </c>
@@ -8036,7 +7983,7 @@
         <v>253</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -8051,7 +7998,7 @@
         <v>41771</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>505118</v>
       </c>
@@ -8065,7 +8012,7 @@
         <v>254</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -8074,7 +8021,7 @@
         <v>14604</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>504828</v>
       </c>
@@ -8088,7 +8035,7 @@
         <v>255</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -8100,7 +8047,7 @@
         <v>42079</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>5324</v>
       </c>
@@ -8114,7 +8061,7 @@
         <v>256</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -8126,7 +8073,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <v>5284</v>
       </c>
@@ -8140,7 +8087,7 @@
         <v>257</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -8152,7 +8099,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <v>504889</v>
       </c>
@@ -8169,7 +8116,7 @@
         <v>258</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -8181,7 +8128,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <v>5488</v>
       </c>
@@ -8198,7 +8145,7 @@
         <v>259</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -8210,7 +8157,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="1">
         <v>504727</v>
       </c>
@@ -8224,7 +8171,7 @@
         <v>260</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -8233,7 +8180,7 @@
         <v>15514</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="1">
         <v>6186</v>
       </c>
@@ -8247,7 +8194,7 @@
         <v>261</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -8256,7 +8203,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="1">
         <v>505083</v>
       </c>
@@ -8270,7 +8217,7 @@
         <v>262</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -8282,7 +8229,7 @@
         <v>41955</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="1">
         <v>504810</v>
       </c>
@@ -8296,7 +8243,7 @@
         <v>263</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -8308,7 +8255,7 @@
         <v>41953</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="1">
         <v>505078</v>
       </c>
@@ -8325,7 +8272,7 @@
         <v>264</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -8340,7 +8287,7 @@
         <v>41971</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="1">
         <v>505034</v>
       </c>
@@ -8354,7 +8301,7 @@
         <v>265</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -8366,7 +8313,7 @@
         <v>41886</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="1">
         <v>5234</v>
       </c>
@@ -8380,7 +8327,7 @@
         <v>266</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -8392,7 +8339,7 @@
         <v>41557</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="1">
         <v>5518</v>
       </c>
@@ -8406,7 +8353,7 @@
         <v>267</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -8415,7 +8362,7 @@
         <v>14579</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="1">
         <v>505129</v>
       </c>
@@ -8432,7 +8379,7 @@
         <v>268</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -8444,7 +8391,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="1">
         <v>5301</v>
       </c>
@@ -8458,7 +8405,7 @@
         <v>269</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -8470,7 +8417,7 @@
         <v>41927</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="1">
         <v>5618</v>
       </c>
@@ -8487,7 +8434,7 @@
         <v>270</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -8499,7 +8446,7 @@
         <v>41908</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="1">
         <v>6192</v>
       </c>
@@ -8513,7 +8460,7 @@
         <v>271</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -8525,7 +8472,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="1">
         <v>505037</v>
       </c>
@@ -8539,7 +8486,7 @@
         <v>272</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -8551,7 +8498,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="1">
         <v>13656</v>
       </c>
@@ -8568,7 +8515,7 @@
         <v>273</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -8580,7 +8527,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="1">
         <v>505047</v>
       </c>
@@ -8594,7 +8541,7 @@
         <v>274</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8606,7 +8553,7 @@
         <v>41940</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="1">
         <v>503352</v>
       </c>
@@ -8620,7 +8567,7 @@
         <v>275</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -8635,7 +8582,7 @@
         <v>41886</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="1">
         <v>505035</v>
       </c>
@@ -8649,7 +8596,7 @@
         <v>276</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8661,7 +8608,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="1">
         <v>504754</v>
       </c>
@@ -8675,7 +8622,7 @@
         <v>277</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -8687,7 +8634,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="1">
         <v>504705</v>
       </c>
@@ -8701,7 +8648,7 @@
         <v>278</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8713,7 +8660,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="1">
         <v>5291</v>
       </c>
@@ -8727,7 +8674,7 @@
         <v>279</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -8739,7 +8686,7 @@
         <v>40828</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="1">
         <v>503512</v>
       </c>
@@ -8756,7 +8703,7 @@
         <v>280</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -8771,7 +8718,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="1">
         <v>11702</v>
       </c>
@@ -8785,7 +8732,7 @@
         <v>281</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8794,7 +8741,7 @@
         <v>11548</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="1">
         <v>503613</v>
       </c>
@@ -8811,7 +8758,7 @@
         <v>282</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -8823,7 +8770,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="1">
         <v>500085</v>
       </c>
@@ -8837,7 +8784,7 @@
         <v>283</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8849,7 +8796,7 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="1">
         <v>503341</v>
       </c>
@@ -8863,7 +8810,7 @@
         <v>284</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -8872,7 +8819,7 @@
         <v>12588</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="1">
         <v>503223</v>
       </c>
@@ -8886,7 +8833,7 @@
         <v>285</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -8898,7 +8845,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="1">
         <v>503172</v>
       </c>
@@ -8912,7 +8859,7 @@
         <v>286</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8924,7 +8871,7 @@
         <v>41771</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="1">
         <v>503148</v>
       </c>
@@ -8941,7 +8888,7 @@
         <v>287</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -8953,7 +8900,7 @@
         <v>41773</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="1">
         <v>5305</v>
       </c>
@@ -8970,7 +8917,7 @@
         <v>288</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -8982,7 +8929,7 @@
         <v>41666</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="1">
         <v>504901</v>
       </c>
@@ -8996,7 +8943,7 @@
         <v>289</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9008,7 +8955,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="1">
         <v>504843</v>
       </c>
@@ -9022,7 +8969,7 @@
         <v>290</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -9034,7 +8981,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="1">
         <v>504834</v>
       </c>
@@ -9051,7 +8998,7 @@
         <v>291</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -9066,7 +9013,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="1">
         <v>500044</v>
       </c>
@@ -9083,7 +9030,7 @@
         <v>292</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -9095,7 +9042,7 @@
         <v>41310</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="1">
         <v>5302</v>
       </c>
@@ -9109,7 +9056,7 @@
         <v>293</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9121,7 +9068,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="1">
         <v>504996</v>
       </c>
@@ -9135,7 +9082,7 @@
         <v>294</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9147,7 +9094,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="1">
         <v>504949</v>
       </c>
@@ -9161,7 +9108,7 @@
         <v>295</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -9173,7 +9120,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="1">
         <v>504928</v>
       </c>
@@ -9187,7 +9134,7 @@
         <v>296</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -9199,7 +9146,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="1">
         <v>9187</v>
       </c>
@@ -9213,7 +9160,7 @@
         <v>297</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -9225,7 +9172,7 @@
         <v>41486</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="1">
         <v>504882</v>
       </c>
@@ -9239,7 +9186,7 @@
         <v>298</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -9251,7 +9198,7 @@
         <v>41432</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="1">
         <v>503333</v>
       </c>
@@ -9268,7 +9215,7 @@
         <v>299</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -9283,7 +9230,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="1">
         <v>504672</v>
       </c>
@@ -9297,7 +9244,7 @@
         <v>300</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -9309,7 +9256,7 @@
         <v>41260</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="1">
         <v>5671</v>
       </c>
@@ -9323,7 +9270,7 @@
         <v>301</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -9335,7 +9282,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="1">
         <v>5605</v>
       </c>
@@ -9349,7 +9296,7 @@
         <v>302</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -9358,7 +9305,7 @@
         <v>10533</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="1">
         <v>503452</v>
       </c>
@@ -9375,7 +9322,7 @@
         <v>303</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -9387,7 +9334,7 @@
         <v>41527</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="1">
         <v>5343</v>
       </c>
@@ -9401,7 +9348,7 @@
         <v>304</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -9410,7 +9357,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="1">
         <v>5174</v>
       </c>
@@ -9424,7 +9371,7 @@
         <v>305</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -9436,7 +9383,7 @@
         <v>40573</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="1">
         <v>503558</v>
       </c>
@@ -9450,7 +9397,7 @@
         <v>306</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -9462,7 +9409,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="1">
         <v>503517</v>
       </c>
@@ -9476,7 +9423,7 @@
         <v>307</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -9488,7 +9435,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="1">
         <v>12782</v>
       </c>
@@ -9505,7 +9452,7 @@
         <v>308</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -9517,7 +9464,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="1">
         <v>503256</v>
       </c>
@@ -9531,7 +9478,7 @@
         <v>309</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -9543,7 +9490,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="1">
         <v>504768</v>
       </c>
@@ -9557,7 +9504,7 @@
         <v>310</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -9569,7 +9516,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="1">
         <v>505069</v>
       </c>
@@ -9583,7 +9530,7 @@
         <v>311</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -9595,7 +9542,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="1">
         <v>5610</v>
       </c>
@@ -9609,7 +9556,7 @@
         <v>78</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9621,7 +9568,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="1">
         <v>6201</v>
       </c>
@@ -9632,7 +9579,7 @@
         <v>312</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -9644,7 +9591,7 @@
         <v>42303</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="1">
         <v>505233</v>
       </c>
@@ -9658,7 +9605,7 @@
         <v>313</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -9670,7 +9617,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="1">
         <v>504804</v>
       </c>
@@ -9681,7 +9628,7 @@
         <v>314</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -9696,7 +9643,7 @@
         <v>41908</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="1">
         <v>13654</v>
       </c>
@@ -9707,7 +9654,7 @@
         <v>315</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -9719,7 +9666,7 @@
         <v>38789</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="1">
         <v>13460</v>
       </c>
@@ -9730,7 +9677,7 @@
         <v>316</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -9742,7 +9689,7 @@
         <v>38398</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="1">
         <v>8170</v>
       </c>
@@ -9753,7 +9700,7 @@
         <v>317</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -9768,7 +9715,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="1">
         <v>13437</v>
       </c>
@@ -9782,7 +9729,7 @@
         <v>186</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -9794,18 +9741,18 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+    <row r="260" spans="1:10">
+      <c r="A260" s="1">
         <v>5665</v>
       </c>
       <c r="C260" s="2">
         <v>41647</v>
       </c>
       <c r="E260" t="s">
-        <v>774</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>775</v>
+        <v>318</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -9814,24 +9761,50 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+    <row r="261" spans="1:10">
+      <c r="A261" s="1">
         <v>12789</v>
       </c>
       <c r="C261" s="2">
         <v>38058</v>
       </c>
       <c r="E261" t="s">
-        <v>776</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>777</v>
+        <v>319</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261">
         <v>2563</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="1">
+        <v>5633</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="2">
+        <v>42369</v>
+      </c>
+      <c r="E262" t="s">
+        <v>78</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>15579</v>
+      </c>
+      <c r="I262" s="2">
+        <v>42305</v>
       </c>
     </row>
   </sheetData>
@@ -10096,23 +10069,21 @@
     <hyperlink ref="F259" r:id="rId258"/>
     <hyperlink ref="F260" r:id="rId259"/>
     <hyperlink ref="F261" r:id="rId260"/>
+    <hyperlink ref="F262" r:id="rId261"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId261"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -10144,1192 +10115,1192 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>5434</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>5431</v>
       </c>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>11686</v>
       </c>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>11692</v>
       </c>
       <c r="E5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>11690</v>
       </c>
       <c r="E6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5664</v>
       </c>
       <c r="E7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>13363</v>
       </c>
       <c r="E8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>5352</v>
       </c>
       <c r="E9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>13360</v>
       </c>
       <c r="E10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>504870</v>
       </c>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>501024</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>501025</v>
       </c>
       <c r="E13" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>501023</v>
       </c>
       <c r="E14" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13523</v>
       </c>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>13699</v>
       </c>
       <c r="E16" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>11696</v>
       </c>
       <c r="E17" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>5407</v>
       </c>
       <c r="E18" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>505151</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>13381</v>
       </c>
       <c r="E20" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>5632</v>
       </c>
       <c r="E21" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>5666</v>
       </c>
       <c r="E22" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>13623</v>
       </c>
       <c r="E23" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>13366</v>
       </c>
       <c r="E24" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>503570</v>
       </c>
       <c r="E25" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>5316</v>
       </c>
       <c r="E26" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>11699</v>
       </c>
       <c r="E27" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>13352</v>
       </c>
       <c r="E28" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>503210</v>
       </c>
       <c r="E29" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>503417</v>
       </c>
       <c r="E30" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>503420</v>
       </c>
       <c r="E31" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>503419</v>
       </c>
       <c r="E32" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>504807</v>
       </c>
       <c r="E33" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>504796</v>
       </c>
       <c r="E34" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>11698</v>
       </c>
       <c r="E35" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>503413</v>
       </c>
       <c r="E36" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>503418</v>
       </c>
       <c r="E37" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>505206</v>
       </c>
       <c r="E38" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>5390</v>
       </c>
       <c r="E39" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>504687</v>
       </c>
       <c r="E40" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>504813</v>
       </c>
       <c r="E41" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>8671</v>
       </c>
       <c r="E42" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>504855</v>
       </c>
       <c r="E43" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>13358</v>
       </c>
       <c r="E44" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>5369</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>13380</v>
       </c>
       <c r="E46" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>13355</v>
       </c>
       <c r="E47" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>13347</v>
       </c>
       <c r="E48" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>5712</v>
       </c>
       <c r="E49" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>13379</v>
       </c>
       <c r="E50" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>5437</v>
       </c>
       <c r="E51" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>5418</v>
       </c>
       <c r="E52" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>503584</v>
       </c>
       <c r="E53" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>13353</v>
       </c>
       <c r="E54" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>11726</v>
       </c>
       <c r="E55" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>5357</v>
       </c>
       <c r="E56" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>505177</v>
       </c>
       <c r="E57" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>5408</v>
       </c>
       <c r="E58" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>5388</v>
       </c>
       <c r="E59" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>12729</v>
       </c>
       <c r="E60" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>5555</v>
       </c>
       <c r="E61" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>504696</v>
       </c>
       <c r="E62" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>5556</v>
       </c>
       <c r="E63" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>13346</v>
       </c>
       <c r="E64" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>504950</v>
       </c>
       <c r="E65" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>505182</v>
       </c>
       <c r="E66" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>505202</v>
       </c>
       <c r="E67" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>505127</v>
       </c>
       <c r="E68" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>505207</v>
       </c>
       <c r="E69" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>13351</v>
       </c>
       <c r="E70" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>5686</v>
       </c>
       <c r="E71" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>5353</v>
       </c>
       <c r="E72" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>5356</v>
       </c>
       <c r="E73" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>5351</v>
       </c>
       <c r="E74" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>12741</v>
       </c>
       <c r="E75" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>5548</v>
       </c>
       <c r="E76" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>501029</v>
       </c>
       <c r="E77" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>503422</v>
       </c>
       <c r="E78" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>501027</v>
       </c>
       <c r="E79" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>503416</v>
       </c>
       <c r="E80" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>13367</v>
       </c>
       <c r="E81" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>12756</v>
       </c>
       <c r="E82" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>501021</v>
       </c>
       <c r="E83" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>503353</v>
       </c>
       <c r="E84" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>501030</v>
       </c>
       <c r="E85" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>12728</v>
       </c>
       <c r="E86" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>13361</v>
       </c>
       <c r="E87" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>13365</v>
       </c>
       <c r="E88" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>501026</v>
       </c>
       <c r="E89" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>13364</v>
       </c>
       <c r="E90" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>12727</v>
       </c>
       <c r="E91" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>501084</v>
       </c>
       <c r="E92" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>12808</v>
       </c>
       <c r="E93" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>5423</v>
       </c>
       <c r="E94" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>505181</v>
       </c>
       <c r="E95" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>5567</v>
       </c>
       <c r="E96" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>13340</v>
       </c>
       <c r="E97" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>504788</v>
       </c>
       <c r="E98" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>504726</v>
       </c>
       <c r="E99" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>503475</v>
       </c>
       <c r="E100" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>13524</v>
       </c>
       <c r="E101" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>504809</v>
       </c>
       <c r="E102" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>5551</v>
       </c>
       <c r="E103" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>12807</v>
       </c>
       <c r="E104" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>503192</v>
       </c>
       <c r="E105" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>11725</v>
       </c>
       <c r="E106" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>5359</v>
       </c>
       <c r="E107" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>5690</v>
       </c>
       <c r="E108" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>5549</v>
       </c>
       <c r="E109" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
